--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>762703.8269153485</v>
+        <v>805677.8348282463</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7558307.070167591</v>
+        <v>7558307.070167582</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8629504.120382868</v>
+        <v>8629504.12038287</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>88.09081815943092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>77.36042051497299</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443466</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>165.7916587900262</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>179.8829354256202</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>97.17069882542259</v>
       </c>
       <c r="G6" t="n">
-        <v>112.6867417694845</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>77.55509939525135</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.97735060840995</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.6761715944833</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447906</v>
+        <v>70.6627069144788</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>70.07973399675636</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>74.5319707274938</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320299</v>
       </c>
       <c r="S9" t="n">
-        <v>135.64139247037</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>34.04265048145679</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>26.17504612340619</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>257.2167138453505</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3751152735481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>167.1133262249476</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>87.93270968653104</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>47.38664856090098</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>44.02483164561383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>297.9783914460476</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.91314409292349</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>47.38664856090042</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.5293923059297</v>
+        <v>228.0656025585469</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>107.070495690909</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.95866062610927</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>227.6636901231396</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6073936510854</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>37.67709528776619</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>127.5532942524947</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>33.24139751941028</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>37.67709528776619</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8039220598676</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>217.597503335046</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>27.74005013826169</v>
       </c>
       <c r="X28" t="n">
-        <v>20.95866062610929</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>59.80165496339997</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>314.9029209504221</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>61.4280600710217</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.68942351146622</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.95866062610927</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>37.67709528776619</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>206.297084082283</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>20.95866062610926</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>20.75019519330523</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>224.6985895131491</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>267.7473854578243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.4148930988788</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>20.95866062610926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>223.758033974756</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>188.605944229153</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.410155028542</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>53.54735467376803</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>301.2402584038898</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>188.6059442291526</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>117.7126336312586</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>100.5174705183997</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897905</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262259</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262259</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262259</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="X2" t="n">
-        <v>482.822241409741</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4024563932561</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>108.6784525769737</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487954</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323105</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158255</v>
+        <v>298.0982375934584</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>108.6784525769737</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>108.6784525769737</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1396.118167241171</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.651845231044</v>
+        <v>1052.086081397647</v>
       </c>
       <c r="D5" t="n">
         <v>870.3861466242934</v>
@@ -4567,19 +4567,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4594,25 +4594,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.718007305293</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.718007305293</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.718007305293</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527.5508013787496</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C6" t="n">
-        <v>353.0977720976226</v>
+        <v>290.4558272351247</v>
       </c>
       <c r="D6" t="n">
-        <v>353.0977720976226</v>
+        <v>141.5214175738735</v>
       </c>
       <c r="E6" t="n">
-        <v>193.8603170921671</v>
+        <v>141.5214175738735</v>
       </c>
       <c r="F6" t="n">
-        <v>193.8603170921671</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4673,25 +4673,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T6" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U6" t="n">
-        <v>1432.552065309181</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V6" t="n">
-        <v>1197.399957077438</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W6" t="n">
-        <v>943.1626003492363</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X6" t="n">
-        <v>735.3111001437035</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y6" t="n">
-        <v>527.5508013787496</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.2893470405991</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="C7" t="n">
-        <v>488.2888770307322</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1722376183965</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2591440360034</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="I7" t="n">
         <v>43.36919653809306</v>
@@ -4749,28 +4749,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470405991</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470405991</v>
+        <v>121.7076807757207</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470405991</v>
+        <v>121.7076807757207</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.8983378296</v>
+        <v>1304.576485992956</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.8983378296</v>
+        <v>1304.576485992956</v>
       </c>
       <c r="D8" t="n">
-        <v>921.1131351948425</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="E8" t="n">
-        <v>535.3248825965982</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="F8" t="n">
         <v>535.3248825965982</v>
@@ -4801,55 +4801,55 @@
         <v>119.4903658344938</v>
       </c>
       <c r="I8" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371253</v>
+        <v>173.6006955371267</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844093</v>
+        <v>412.4113998844118</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721412</v>
+        <v>745.5789575721453</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459637</v>
+        <v>1147.961497459642</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.46881589934</v>
+        <v>1561.468815899346</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767452</v>
+        <v>1938.596789767459</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440887</v>
+        <v>2225.965789440895</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823326</v>
+        <v>2393.595193823336</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185345</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="S8" t="n">
-        <v>2405.694710185345</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="T8" t="n">
-        <v>2405.694710185345</v>
+        <v>2405.694710185355</v>
       </c>
       <c r="U8" t="n">
-        <v>2152.103268130613</v>
+        <v>2152.103268130623</v>
       </c>
       <c r="V8" t="n">
-        <v>2152.103268130613</v>
+        <v>2081.31565803289</v>
       </c>
       <c r="W8" t="n">
-        <v>2152.103268130613</v>
+        <v>2081.31565803289</v>
       </c>
       <c r="X8" t="n">
-        <v>1778.637509869533</v>
+        <v>2081.31565803289</v>
       </c>
       <c r="Y8" t="n">
-        <v>1388.498177893722</v>
+        <v>1691.176326057078</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>740.3945971287837</v>
+        <v>639.5911585922479</v>
       </c>
       <c r="C9" t="n">
-        <v>565.9415678476568</v>
+        <v>639.5911585922479</v>
       </c>
       <c r="D9" t="n">
-        <v>490.6567489309963</v>
+        <v>490.6567489309966</v>
       </c>
       <c r="E9" t="n">
-        <v>331.4192939255408</v>
+        <v>331.4192939255411</v>
       </c>
       <c r="F9" t="n">
-        <v>184.8847359524258</v>
+        <v>184.884735952426</v>
       </c>
       <c r="G9" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="H9" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="I9" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502468</v>
+        <v>104.0351264502474</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873324</v>
+        <v>277.7682440873335</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039181</v>
+        <v>557.6964019039201</v>
       </c>
       <c r="M9" t="n">
-        <v>903.716226889924</v>
+        <v>903.7162268899269</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944934</v>
+        <v>1273.302811944937</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471365</v>
+        <v>1589.182537471369</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411576</v>
+        <v>1823.370799411581</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186831</v>
+        <v>1930.000254186837</v>
       </c>
       <c r="R9" t="n">
-        <v>1930.000254186831</v>
+        <v>1904.540155931076</v>
       </c>
       <c r="S9" t="n">
-        <v>1792.988746641003</v>
+        <v>1767.528648385248</v>
       </c>
       <c r="T9" t="n">
-        <v>1598.702261611627</v>
+        <v>1767.528648385248</v>
       </c>
       <c r="U9" t="n">
-        <v>1370.607589642007</v>
+        <v>1539.433976415628</v>
       </c>
       <c r="V9" t="n">
-        <v>1370.607589642007</v>
+        <v>1304.281868183886</v>
       </c>
       <c r="W9" t="n">
-        <v>1116.370232913806</v>
+        <v>1050.044511455684</v>
       </c>
       <c r="X9" t="n">
-        <v>1116.370232913806</v>
+        <v>842.1930112501511</v>
       </c>
       <c r="Y9" t="n">
-        <v>908.6099341488518</v>
+        <v>807.806495612316</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.1138942037069</v>
+        <v>369.3563758127037</v>
       </c>
       <c r="C10" t="n">
-        <v>48.1138942037069</v>
+        <v>342.9169352840106</v>
       </c>
       <c r="D10" t="n">
-        <v>48.1138942037069</v>
+        <v>342.9169352840106</v>
       </c>
       <c r="E10" t="n">
-        <v>48.1138942037069</v>
+        <v>195.0038417016175</v>
       </c>
       <c r="F10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="G10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="H10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="I10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1138942037069</v>
+        <v>48.1138942037071</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139088</v>
+        <v>107.4998553139093</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663725</v>
+        <v>213.3992373663734</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658653</v>
+        <v>328.3135705658668</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739861</v>
+        <v>448.353023673988</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502103</v>
+        <v>538.9157986502125</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="R10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="S10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="T10" t="n">
-        <v>597.3459267107185</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="U10" t="n">
-        <v>337.5310642406675</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="V10" t="n">
-        <v>337.5310642406675</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="W10" t="n">
-        <v>48.1138942037069</v>
+        <v>597.3459267107211</v>
       </c>
       <c r="X10" t="n">
-        <v>48.1138942037069</v>
+        <v>369.3563758127037</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.1138942037069</v>
+        <v>369.3563758127037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>277.3103548138739</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5056,37 +5056,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W11" t="n">
-        <v>2741.012457539437</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.546699278357</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.407367302545</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U13" t="n">
-        <v>631.784138943829</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V13" t="n">
-        <v>583.9188373671614</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="W13" t="n">
-        <v>294.5016673302007</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1561.13247157855</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C14" t="n">
-        <v>1561.13247157855</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D14" t="n">
-        <v>1202.866772971799</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E14" t="n">
-        <v>817.078520373555</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>2711.337401879563</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W14" t="n">
-        <v>2711.337401879563</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X14" t="n">
-        <v>2337.871643618483</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.732311642671</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>248.6678660441579</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>248.6678660441579</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>248.6678660441579</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>101.7779185462475</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T16" t="n">
-        <v>873.0217042415178</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U16" t="n">
-        <v>583.9188373671614</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V16" t="n">
-        <v>583.9188373671614</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W16" t="n">
-        <v>294.5016673302007</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1575.942324366272</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218339</v>
@@ -5518,7 +5518,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923657</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653543</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392463</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392463</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5594,25 +5594,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218339</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>610.6137746750309</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V19" t="n">
-        <v>355.929286469144</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1904.487375535336</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.72178906653</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796416</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535336</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y20" t="n">
-        <v>1904.487375535336</v>
+        <v>2235.550262878908</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5852,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596504</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U22" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V22" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W22" t="n">
-        <v>294.5016673302007</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218339</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218339</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1628.178203944119</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1259.215687003707</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>900.9499883969568</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>515.1617357987125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F23" t="n">
-        <v>515.1617357987125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G23" t="n">
-        <v>100.0892856437089</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218339</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6004,7 +6004,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296684</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.24380226932</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y23" t="n">
-        <v>2014.778044008241</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="24">
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218339</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218339</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218339</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218339</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218339</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1159.621836864465</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
@@ -6247,31 +6247,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2410.926331152342</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2037.460572891262</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>1647.321240915451</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218339</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218339</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438281</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379413</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W28" t="n">
-        <v>87.68248070098065</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="X28" t="n">
-        <v>66.51211643218339</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.51211643218339</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D29" t="n">
         <v>1320.35562273557</v>
@@ -6460,22 +6460,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W29" t="n">
-        <v>2755.806928794324</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X29" t="n">
-        <v>2437.723170258544</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.583838282732</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>583.9188373671614</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>604.1539720860136</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218342</v>
+        <v>604.1539720860136</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>383.3613929424835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.509627919559</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218342</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218342</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V34" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W34" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X34" t="n">
-        <v>66.51211643218342</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.51211643218342</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1501.213961756483</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1501.213961756483</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1142.948263149733</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796417</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X35" t="n">
-        <v>2277.953133796417</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.813801820605</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.68248070098065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C37" t="n">
-        <v>87.68248070098065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>87.68248070098065</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>87.68248070098065</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218342</v>
@@ -7128,19 +7128,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438281</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="V37" t="n">
-        <v>377.0996507379413</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="W37" t="n">
-        <v>87.68248070098065</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X37" t="n">
-        <v>87.68248070098065</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.68248070098065</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.35562273557</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C38" t="n">
-        <v>1320.35562273557</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1132.251444816071</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>746.4631922178264</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>335.4772874282189</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7171,55 +7171,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W38" t="n">
-        <v>2470.560553036583</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>2097.094794775503</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y38" t="n">
-        <v>1706.955462799692</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>523.9612719922603</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>523.9612719922603</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>376.0481784098672</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596504</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438281</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>377.0996507379413</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W40" t="n">
-        <v>87.68248070098065</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218342</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.585586273443</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>497.2663346843912</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>347.1496952720554</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>347.1496952720554</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>200.259747774145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7569,52 +7569,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U43" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V43" t="n">
-        <v>666.202517612298</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X43" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2014.77804400824</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1624.638712032428</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U46" t="n">
-        <v>321.1966046380703</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V46" t="n">
-        <v>66.51211643218342</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218342</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218342</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218342</v>
+        <v>530.2513404403937</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>277.1820736115766</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22603,19 +22603,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893581</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>95.34807847334275</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831052</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X3" t="n">
-        <v>40.60044802738273</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821564</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>199.4812329809814</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>174.8001061950627</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>47.89851356796129</v>
       </c>
       <c r="G6" t="n">
-        <v>22.8204920775508</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22944,16 +22944,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>135.5663557888597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.4515011109318</v>
@@ -22962,7 +22962,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>31.59906605183218</v>
       </c>
       <c r="J7" t="n">
         <v>18.15430933923925</v>
@@ -22989,7 +22989,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>274.705691012273</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808924</v>
+        <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>126.3796986693933</v>
       </c>
       <c r="T8" t="n">
         <v>207.2205572464783</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>257.6725244733785</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23102,10 +23102,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>72.91309483714495</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23117,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817384</v>
+        <v>93.49542143817381</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318229</v>
+        <v>32.71530508318216</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320322</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>171.6400452958476</v>
       </c>
     </row>
     <row r="10">
@@ -23181,28 +23181,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0717749752216</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551746</v>
+        <v>106.5295869551745</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232989</v>
+        <v>11.98401099232967</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236507</v>
+        <v>15.28665244236481</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823914</v>
+        <v>104.1486779823912</v>
       </c>
       <c r="S10" t="n">
         <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299504</v>
+        <v>220.9949191299503</v>
       </c>
       <c r="U10" t="n">
-        <v>29.01358354988514</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.35872638993243</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>239.7627195167639</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>78.09309857249718</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>204.750994762927</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>283.7274268245211</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>51.26257727136539</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>131.1126641661047</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.1623007152688</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2044493575509</v>
+        <v>154.6682391049337</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>38.3505523320222</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23943,13 +23943,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>198.5902886500599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>155.0701515403409</v>
       </c>
       <c r="C20" t="n">
-        <v>141.6654981199222</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>138.0881058334842</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>248.8459030488248</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>255.1805474109859</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>261.3663668679102</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,22 +24417,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>138.0881058334842</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>180.9075580643286</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>159.1264480123942</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>131.643465382367</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.7829481983293</v>
       </c>
       <c r="X28" t="n">
-        <v>204.7509947629279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>322.9321867000806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>54.82817972804696</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>138.0881058334842</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>225.0949382655693</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>363.0444181520144</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.95568926599745</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,19 +25128,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>198.5902886500599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>188.032560101271</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>175.6332859899788</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>97.95568926599745</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>124.462387396822</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>265.4616430123077</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>186.2231361403043</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>81.49358325958872</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>5.006154924052481</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>204.7509947629279</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>158.1723360975058</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>181.125156449316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>33.61565323048623</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>198.59028865006</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>81.49358325959076</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>181.1251564493164</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>101.8363156449106</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>151.6201728054283</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632720.5423917633</v>
+        <v>632720.5423917632</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668279.6506900452</v>
+        <v>668279.6506900465</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534362</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534362</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534362</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>174971.6267790215</v>
       </c>
       <c r="C2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.946739327</v>
       </c>
       <c r="D2" t="n">
-        <v>286405.5645814477</v>
+        <v>286405.5645814484</v>
       </c>
       <c r="E2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="F2" t="n">
-        <v>345493.0262371866</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="G2" t="n">
         <v>345493.0262371869</v>
@@ -26334,28 +26334,28 @@
         <v>345493.0262371869</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="J2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371866</v>
       </c>
       <c r="L2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="M2" t="n">
+        <v>345493.0262371868</v>
+      </c>
+      <c r="N2" t="n">
+        <v>345493.0262371867</v>
+      </c>
+      <c r="O2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="N2" t="n">
-        <v>345493.026237187</v>
-      </c>
-      <c r="O2" t="n">
-        <v>345493.026237187</v>
-      </c>
       <c r="P2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829608</v>
+        <v>59871.45719829832</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815246</v>
+        <v>219439.6828815221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487781</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109841</v>
+        <v>15010.50346109898</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.3821528158</v>
+        <v>57311.38215281509</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
         <v>384.3219252469136</v>
       </c>
       <c r="D4" t="n">
-        <v>425.2075505993805</v>
+        <v>425.207550599382</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
@@ -26444,22 +26444,22 @@
         <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103155</v>
+        <v>89860.11994103173</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485702.9382905447</v>
+        <v>-474728.2824734133</v>
       </c>
       <c r="C6" t="n">
-        <v>-214541.0814441325</v>
+        <v>-207689.0393395861</v>
       </c>
       <c r="D6" t="n">
-        <v>129361.0958630778</v>
+        <v>135560.0114886747</v>
       </c>
       <c r="E6" t="n">
-        <v>47088.36042709322</v>
+        <v>50754.95626744848</v>
       </c>
       <c r="F6" t="n">
-        <v>266528.0433086177</v>
+        <v>270194.6391489704</v>
       </c>
       <c r="G6" t="n">
-        <v>266528.043308618</v>
+        <v>270194.6391489705</v>
       </c>
       <c r="H6" t="n">
-        <v>266528.0433086178</v>
+        <v>270194.6391489705</v>
       </c>
       <c r="I6" t="n">
-        <v>266528.0433086178</v>
+        <v>270194.6391489704</v>
       </c>
       <c r="J6" t="n">
-        <v>217463.0985800732</v>
+        <v>221129.6944204258</v>
       </c>
       <c r="K6" t="n">
-        <v>175268.0864437401</v>
+        <v>178934.6822840924</v>
       </c>
       <c r="L6" t="n">
-        <v>251517.5398475195</v>
+        <v>255184.1356878715</v>
       </c>
       <c r="M6" t="n">
-        <v>209216.6611558021</v>
+        <v>212883.2569961553</v>
       </c>
       <c r="N6" t="n">
-        <v>266528.0433086179</v>
+        <v>270194.6391489703</v>
       </c>
       <c r="O6" t="n">
-        <v>266528.0433086177</v>
+        <v>270194.6391489705</v>
       </c>
       <c r="P6" t="n">
-        <v>266528.0433086178</v>
+        <v>270194.6391489705</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621243</v>
+        <v>902.108272762126</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463362</v>
+        <v>601.4236775463387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444021</v>
+        <v>48.39760822444191</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311742</v>
+        <v>187.668427831172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017301</v>
+        <v>59.30872082017552</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017301</v>
+        <v>59.30872082017529</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017301</v>
+        <v>59.30872082017552</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559566</v>
+        <v>229.9777778559537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651753</v>
+        <v>3.62656592065176</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487478</v>
+        <v>37.14056823487485</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559269</v>
+        <v>139.8131826559271</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079171</v>
+        <v>307.8002493079176</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291058</v>
+        <v>461.3127847291067</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232521</v>
+        <v>572.2993015232531</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146426</v>
+        <v>636.7932432146439</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366945</v>
+        <v>647.0972236366957</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632135</v>
+        <v>611.0355587632148</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971233</v>
+        <v>521.5047125971244</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637823</v>
+        <v>391.6283205637831</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131409</v>
+        <v>227.8072715131413</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685191</v>
+        <v>82.64037091685206</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765306</v>
+        <v>15.87529231765309</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521402</v>
+        <v>0.2901252736521407</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.940383831978909</v>
+        <v>1.940383831978913</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832262</v>
+        <v>18.74002279832266</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681771</v>
+        <v>66.80707491681784</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449899</v>
+        <v>183.3237198449902</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875767</v>
+        <v>313.3294365875773</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461224</v>
+        <v>421.3100947461232</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553577</v>
+        <v>491.6490086553586</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671813</v>
+        <v>504.6614949671822</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691223</v>
+        <v>461.6666742691231</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539375</v>
+        <v>370.5282073539382</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610271</v>
+        <v>247.6882940610275</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907607</v>
+        <v>120.474006690761</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346787</v>
+        <v>36.04177863346793</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739547</v>
+        <v>7.821108515739562</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1276568310512441</v>
+        <v>0.1276568310512443</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013667</v>
+        <v>1.62675262301367</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461243</v>
+        <v>14.46330968461246</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208373</v>
+        <v>48.92088797208383</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470662</v>
+        <v>115.0114104470664</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737696</v>
+        <v>188.9990774737699</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615046</v>
+        <v>241.8537490615051</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874968</v>
+        <v>255.0008679874973</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017188</v>
+        <v>248.9375173017193</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328773</v>
+        <v>229.9340889328777</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233983</v>
+        <v>196.7483354233987</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870808</v>
+        <v>136.218349187081</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477812</v>
+        <v>73.14471339477826</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106544</v>
+        <v>28.34986162106549</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331119</v>
+        <v>6.950670298331133</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529101</v>
+        <v>0.08873196125529118</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32803,13 +32803,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953996</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.2811376003809</v>
@@ -33754,10 +33754,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,10 +34207,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34219,28 +34219,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812308</v>
+        <v>126.7543447812313</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841253</v>
+        <v>241.2229336841262</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532649</v>
+        <v>336.5328865532659</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873699</v>
+        <v>406.4470099873712</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401036</v>
+        <v>417.6841600401048</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415268</v>
+        <v>380.937347341528</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418538</v>
+        <v>290.2717168418548</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893328</v>
+        <v>169.3226306893336</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900878</v>
+        <v>12.22173369900921</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832316</v>
+        <v>56.4860931783235</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132177</v>
+        <v>175.4879976132183</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662482</v>
+        <v>282.755714966249</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333394</v>
+        <v>349.5149747333403</v>
       </c>
       <c r="N9" t="n">
-        <v>373.319782883848</v>
+        <v>373.3197828838489</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246778</v>
+        <v>319.0704298246787</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396072</v>
+        <v>236.5537999396079</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750056</v>
+        <v>107.706519975006</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323422</v>
+        <v>59.98581930323456</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802663</v>
+        <v>106.9690727802668</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398918</v>
+        <v>116.0750840398923</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364856</v>
+        <v>121.2519728364861</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103448</v>
+        <v>91.47755048103491</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425067</v>
+        <v>59.02033137425104</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37867,19 +37867,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
